--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rayha\Documents\UiPath\DU_Project_Invoice\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBBCCFE-6BA0-4D1B-9E80-01E4EE75D59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649ED4C6-BE51-4D9F-A4EC-B6A8623F4F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="153">
   <si>
     <t>Name</t>
   </si>
@@ -489,6 +489,9 @@
   </si>
   <si>
     <t>SenderPassword</t>
+  </si>
+  <si>
+    <t>CustomTrainingFolder</t>
   </si>
 </sst>
 </file>
@@ -3465,7 +3468,7 @@
   <dimension ref="A1:AA999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3628,7 +3631,14 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
     <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rayha\Documents\UiPath\DU_Project_Invoice\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649ED4C6-BE51-4D9F-A4EC-B6A8623F4F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9C517B-B799-42B4-BA40-36060A42213A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -173,9 +173,6 @@
     <t>UiPathOcrEndpoint</t>
   </si>
   <si>
-    <t>https://du.uipath.com/ocr</t>
-  </si>
-  <si>
     <t>UiPath public endpoint for DocumentOCR</t>
   </si>
   <si>
@@ -492,6 +489,9 @@
   </si>
   <si>
     <t>CustomTrainingFolder</t>
+  </si>
+  <si>
+    <t>https://du-us.uipath.com/ocr</t>
   </si>
 </sst>
 </file>
@@ -878,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -926,13 +926,13 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" t="s">
         <v>134</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>135</v>
-      </c>
-      <c r="C2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -941,7 +941,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -949,23 +949,23 @@
         <v>39</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -973,11 +973,11 @@
       <c r="A9" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" t="s">
         <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -985,10 +985,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -996,43 +996,43 @@
         <v>5</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
         <v>93</v>
       </c>
-      <c r="B13" t="s">
-        <v>94</v>
-      </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" t="s">
         <v>146</v>
-      </c>
-      <c r="C14" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2093,62 +2093,62 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="3">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" s="3">
         <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="3">
         <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2190,15 +2190,15 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2211,15 +2211,15 @@
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -2243,18 +2243,18 @@
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2267,26 +2267,26 @@
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" t="s">
         <v>99</v>
-      </c>
-      <c r="B25" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
         <v>55</v>
-      </c>
-      <c r="B26" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
         <v>77</v>
-      </c>
-      <c r="B27" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2294,28 +2294,28 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
         <v>28</v>
@@ -2323,18 +2323,18 @@
     </row>
     <row r="32" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2350,7 +2350,7 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2364,111 +2364,111 @@
     <row r="37" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" t="s">
         <v>141</v>
-      </c>
-      <c r="B39" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" t="s">
         <v>103</v>
-      </c>
-      <c r="B41" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" t="s">
         <v>124</v>
-      </c>
-      <c r="B45" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" t="s">
         <v>112</v>
-      </c>
-      <c r="B46" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" t="s">
         <v>114</v>
-      </c>
-      <c r="B47" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" t="s">
         <v>118</v>
-      </c>
-      <c r="B48" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" t="s">
         <v>108</v>
-      </c>
-      <c r="B52" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" t="s">
         <v>110</v>
-      </c>
-      <c r="B53" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2493,7 +2493,7 @@
         <v>34</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3467,8 +3467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3529,13 +3529,13 @@
     </row>
     <row r="3" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3551,24 +3551,24 @@
     </row>
     <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3579,64 +3579,64 @@
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
         <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
